--- a/data/pca/factorExposure/factorExposure_2017-04-12.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-04-12.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.01961068070773305</v>
+        <v>0.01017470276183543</v>
       </c>
       <c r="C2">
-        <v>0.01330414316010638</v>
+        <v>-0.0417281108087451</v>
       </c>
       <c r="D2">
-        <v>0.03346001799185511</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.02959010390278751</v>
+      </c>
+      <c r="E2">
+        <v>0.03700666380566213</v>
+      </c>
+      <c r="F2">
+        <v>-0.006912080601597041</v>
+      </c>
+      <c r="G2">
+        <v>0.1018268015244734</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.02059410586824515</v>
+        <v>0.04153128696246234</v>
       </c>
       <c r="C3">
-        <v>-0.01172958253537229</v>
+        <v>-0.1020229356464868</v>
       </c>
       <c r="D3">
-        <v>0.1055373358617436</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.01770896088457462</v>
+      </c>
+      <c r="E3">
+        <v>0.1003398599387435</v>
+      </c>
+      <c r="F3">
+        <v>-0.003894209348723145</v>
+      </c>
+      <c r="G3">
+        <v>0.1639043204843304</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.02463708492328843</v>
+        <v>0.056454144453941</v>
       </c>
       <c r="C4">
-        <v>0.004395498330586198</v>
+        <v>-0.06819931418328914</v>
       </c>
       <c r="D4">
-        <v>0.08324274127203195</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.02450860281477124</v>
+      </c>
+      <c r="E4">
+        <v>0.03295224174223278</v>
+      </c>
+      <c r="F4">
+        <v>-0.01092932351548171</v>
+      </c>
+      <c r="G4">
+        <v>0.1010115295964227</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,136 +806,226 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.01008661898886131</v>
+        <v>0.03678792799158512</v>
       </c>
       <c r="C6">
-        <v>0.01280204696720825</v>
+        <v>-0.05137396702911928</v>
       </c>
       <c r="D6">
-        <v>0.07671831424517121</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.01710918778622356</v>
+      </c>
+      <c r="E6">
+        <v>0.03686006259774482</v>
+      </c>
+      <c r="F6">
+        <v>-0.008216136293725657</v>
+      </c>
+      <c r="G6">
+        <v>0.08423413492416713</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.005453614025770348</v>
+        <v>0.02088971975553211</v>
       </c>
       <c r="C7">
-        <v>0.01248779796370186</v>
+        <v>-0.03950273871347377</v>
       </c>
       <c r="D7">
-        <v>0.03581998856045705</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.01402613063688617</v>
+      </c>
+      <c r="E7">
+        <v>0.006252883762031394</v>
+      </c>
+      <c r="F7">
+        <v>0.004215674931907496</v>
+      </c>
+      <c r="G7">
+        <v>0.1223088226041136</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.001212523759223087</v>
+        <v>0.003785694133345883</v>
       </c>
       <c r="C8">
-        <v>-0.0005788088918889273</v>
+        <v>-0.02548770904097047</v>
       </c>
       <c r="D8">
-        <v>-0.0007844804294324544</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.00379010989985707</v>
+      </c>
+      <c r="E8">
+        <v>0.02851329145720654</v>
+      </c>
+      <c r="F8">
+        <v>-0.007472484173755644</v>
+      </c>
+      <c r="G8">
+        <v>0.06604274218253643</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.01578910175134065</v>
+        <v>0.03415139733687468</v>
       </c>
       <c r="C9">
-        <v>0.002616505891044472</v>
+        <v>-0.0506251786811938</v>
       </c>
       <c r="D9">
-        <v>0.06257134513020413</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.01649105775508355</v>
+      </c>
+      <c r="E9">
+        <v>0.02297535506240107</v>
+      </c>
+      <c r="F9">
+        <v>-0.006376493676627556</v>
+      </c>
+      <c r="G9">
+        <v>0.1006125686187563</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.1026765171678862</v>
+        <v>0.09898686333085231</v>
       </c>
       <c r="C10">
-        <v>-0.1570904000769013</v>
+        <v>0.1827295972446488</v>
       </c>
       <c r="D10">
-        <v>-0.09179316126096222</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.01564873174716089</v>
+      </c>
+      <c r="E10">
+        <v>0.01987151723691145</v>
+      </c>
+      <c r="F10">
+        <v>0.02165488967452181</v>
+      </c>
+      <c r="G10">
+        <v>0.05582748830029819</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.0002229853088600791</v>
+        <v>0.03423360227355469</v>
       </c>
       <c r="C11">
-        <v>0.00218691033357771</v>
+        <v>-0.05320906737932111</v>
       </c>
       <c r="D11">
-        <v>0.05298528037089245</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.002547215742620569</v>
+      </c>
+      <c r="E11">
+        <v>0.01746041609022122</v>
+      </c>
+      <c r="F11">
+        <v>-0.02047854587359091</v>
+      </c>
+      <c r="G11">
+        <v>0.09121604134453742</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.003833398240773478</v>
+        <v>0.03583655301774308</v>
       </c>
       <c r="C12">
-        <v>0.004628192359926734</v>
+        <v>-0.04833550569480825</v>
       </c>
       <c r="D12">
-        <v>0.04579381667779928</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.006615660251286583</v>
+      </c>
+      <c r="E12">
+        <v>0.009289841791301814</v>
+      </c>
+      <c r="F12">
+        <v>-0.002029878066493911</v>
+      </c>
+      <c r="G12">
+        <v>0.08280224677796523</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.02255226876867432</v>
+        <v>0.01547573810827918</v>
       </c>
       <c r="C13">
-        <v>0.004901562637688508</v>
+        <v>-0.04221273891452608</v>
       </c>
       <c r="D13">
-        <v>0.038172145680776</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.02655149289766061</v>
+      </c>
+      <c r="E13">
+        <v>0.03730879414947803</v>
+      </c>
+      <c r="F13">
+        <v>-0.005687174733443717</v>
+      </c>
+      <c r="G13">
+        <v>0.1396996658425412</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.00632627380471918</v>
+        <v>0.008262894295625172</v>
       </c>
       <c r="C14">
-        <v>0.003166972451032148</v>
+        <v>-0.02897442529143248</v>
       </c>
       <c r="D14">
-        <v>0.0199900108708314</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.01025410614592456</v>
+      </c>
+      <c r="E14">
+        <v>0.006988607927866629</v>
+      </c>
+      <c r="F14">
+        <v>0.00732135442411613</v>
+      </c>
+      <c r="G14">
+        <v>0.1054895935924439</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -901,24 +1036,42 @@
       <c r="D15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.002402836070333396</v>
+        <v>0.03283446960921407</v>
       </c>
       <c r="C16">
-        <v>-0.002018534803629412</v>
+        <v>-0.04643324818728097</v>
       </c>
       <c r="D16">
-        <v>0.04226307189853304</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.002034892219371255</v>
+      </c>
+      <c r="E16">
+        <v>0.01535839504463722</v>
+      </c>
+      <c r="F16">
+        <v>-0.002092234582699374</v>
+      </c>
+      <c r="G16">
+        <v>0.09298208257175879</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.01217277531457221</v>
+        <v>0.02295144811806978</v>
       </c>
       <c r="C19">
-        <v>0.005254052047173566</v>
+        <v>-0.05119465582009998</v>
       </c>
       <c r="D19">
-        <v>0.04163479996745008</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.01906145097258845</v>
+      </c>
+      <c r="E19">
+        <v>0.07877054449177122</v>
+      </c>
+      <c r="F19">
+        <v>-0.01991874858772371</v>
+      </c>
+      <c r="G19">
+        <v>0.1388256754110602</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.007132530172530174</v>
+        <v>0.0152699647086362</v>
       </c>
       <c r="C20">
-        <v>0.008392611249037656</v>
+        <v>-0.04179263319244337</v>
       </c>
       <c r="D20">
-        <v>0.03485405961042837</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.01430445052223188</v>
+      </c>
+      <c r="E20">
+        <v>0.03862032024507056</v>
+      </c>
+      <c r="F20">
+        <v>0.01166046351055545</v>
+      </c>
+      <c r="G20">
+        <v>0.1109865830806055</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.01589699867027341</v>
+        <v>0.01251272121594495</v>
       </c>
       <c r="C21">
-        <v>-0.0001641865024072928</v>
+        <v>-0.03824437873535246</v>
       </c>
       <c r="D21">
-        <v>0.02501349917528263</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.01923515306682875</v>
+      </c>
+      <c r="E21">
+        <v>0.04983467370691719</v>
+      </c>
+      <c r="F21">
+        <v>-0.0001196183243770949</v>
+      </c>
+      <c r="G21">
+        <v>0.1378576700723035</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>-0.001354169836847464</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>-0.0004279925646109116</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.0006172008957705118</v>
+      </c>
+      <c r="E22">
+        <v>0.004026702132707238</v>
+      </c>
+      <c r="F22">
+        <v>-0.001787420519098725</v>
+      </c>
+      <c r="G22">
+        <v>0.00585232191494227</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>-0.001359710303720208</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>-0.0004397368852289177</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.0006160268876894836</v>
+      </c>
+      <c r="E23">
+        <v>0.004013877657965275</v>
+      </c>
+      <c r="F23">
+        <v>-0.001793138433237513</v>
+      </c>
+      <c r="G23">
+        <v>0.005744505557986311</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>3.596268741996381e-05</v>
+        <v>0.02814241023613859</v>
       </c>
       <c r="C24">
-        <v>0.009519616141349828</v>
+        <v>-0.05090764200383312</v>
       </c>
       <c r="D24">
-        <v>0.04509026537854217</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.007330129447635119</v>
+      </c>
+      <c r="E24">
+        <v>0.01246399817311311</v>
+      </c>
+      <c r="F24">
+        <v>-0.01226965342719928</v>
+      </c>
+      <c r="G24">
+        <v>0.09154999492195362</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.01432864202270685</v>
+        <v>0.04234174727355566</v>
       </c>
       <c r="C25">
-        <v>-0.001814657106684861</v>
+        <v>-0.05810763289330701</v>
       </c>
       <c r="D25">
-        <v>0.05823681148242924</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.01132480296733219</v>
+      </c>
+      <c r="E25">
+        <v>0.004195489033281602</v>
+      </c>
+      <c r="F25">
+        <v>-0.005966482973942845</v>
+      </c>
+      <c r="G25">
+        <v>0.09981515351049965</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.02084164205461186</v>
+        <v>0.01389538659383287</v>
       </c>
       <c r="C26">
-        <v>0.008599714584179607</v>
+        <v>-0.0121463934556902</v>
       </c>
       <c r="D26">
-        <v>0.002091034434661188</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.02415952519028462</v>
+      </c>
+      <c r="E26">
+        <v>0.009261645666325081</v>
+      </c>
+      <c r="F26">
+        <v>0.008785515665238428</v>
+      </c>
+      <c r="G26">
+        <v>0.08353874608223671</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.1470193697421902</v>
+        <v>0.1254465148878378</v>
       </c>
       <c r="C28">
-        <v>-0.1988725901877674</v>
+        <v>0.2397648562924787</v>
       </c>
       <c r="D28">
-        <v>-0.1185214271681717</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.006575481008730842</v>
+      </c>
+      <c r="E28">
+        <v>0.009210426066303823</v>
+      </c>
+      <c r="F28">
+        <v>0.0153100842072973</v>
+      </c>
+      <c r="G28">
+        <v>0.04811431539931284</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.01071707173158351</v>
+        <v>0.009034329092898698</v>
       </c>
       <c r="C29">
-        <v>-0.003754456301199077</v>
+        <v>-0.02309968339516037</v>
       </c>
       <c r="D29">
-        <v>0.01937862287028342</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.009300606242923984</v>
+      </c>
+      <c r="E29">
+        <v>0.004416007555256318</v>
+      </c>
+      <c r="F29">
+        <v>0.01436805841460117</v>
+      </c>
+      <c r="G29">
+        <v>0.09697227590762825</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.0160562871505597</v>
+        <v>0.04165116431382154</v>
       </c>
       <c r="C30">
-        <v>0.01978538881770607</v>
+        <v>-0.06990569828264749</v>
       </c>
       <c r="D30">
-        <v>0.09951271186343059</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.02900989405952706</v>
+      </c>
+      <c r="E30">
+        <v>0.05994639660086633</v>
+      </c>
+      <c r="F30">
+        <v>-0.04612509785842439</v>
+      </c>
+      <c r="G30">
+        <v>0.1319625417659994</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.02015268707561669</v>
+        <v>0.05327756130038268</v>
       </c>
       <c r="C31">
-        <v>-0.01999624515416865</v>
+        <v>-0.03775515122669502</v>
       </c>
       <c r="D31">
-        <v>0.03211611831580354</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.003843646883367053</v>
+      </c>
+      <c r="E31">
+        <v>0.0002868508809505044</v>
+      </c>
+      <c r="F31">
+        <v>0.03969253264206746</v>
+      </c>
+      <c r="G31">
+        <v>0.100338785121116</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.0004923617407774414</v>
+        <v>0.003020779217458947</v>
       </c>
       <c r="C32">
-        <v>-0.01528627030263811</v>
+        <v>-0.02368707654165416</v>
       </c>
       <c r="D32">
-        <v>0.004532891898300499</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.002901021186228488</v>
+      </c>
+      <c r="E32">
+        <v>0.03349811503716806</v>
+      </c>
+      <c r="F32">
+        <v>-0.04395191528716194</v>
+      </c>
+      <c r="G32">
+        <v>0.08616739742758751</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.01030721794166277</v>
+        <v>0.02813936437860472</v>
       </c>
       <c r="C33">
-        <v>0.005070403892200113</v>
+        <v>-0.05018461707271406</v>
       </c>
       <c r="D33">
-        <v>0.04386183556607614</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.01582244686301559</v>
+      </c>
+      <c r="E33">
+        <v>0.04392457153700513</v>
+      </c>
+      <c r="F33">
+        <v>-0.01563017511550581</v>
+      </c>
+      <c r="G33">
+        <v>0.163141391916817</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.001770248920777649</v>
+        <v>0.03976950957857592</v>
       </c>
       <c r="C34">
-        <v>-0.01204692744410188</v>
+        <v>-0.05947823219527006</v>
       </c>
       <c r="D34">
-        <v>0.05682855937502211</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.004415803809482729</v>
+      </c>
+      <c r="E34">
+        <v>0.007487969821431441</v>
+      </c>
+      <c r="F34">
+        <v>-0.02092052859301449</v>
+      </c>
+      <c r="G34">
+        <v>0.09510946094055163</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.01626137681610282</v>
+        <v>0.01629939862415855</v>
       </c>
       <c r="C36">
-        <v>-0.004851411776581646</v>
+        <v>-0.00948589783645001</v>
       </c>
       <c r="D36">
-        <v>0.004809614013761564</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.01256325907767418</v>
+      </c>
+      <c r="E36">
+        <v>0.008555891469645291</v>
+      </c>
+      <c r="F36">
+        <v>0.007406767567599604</v>
+      </c>
+      <c r="G36">
+        <v>0.09245668051528767</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1542,180 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.008169842001394803</v>
+        <v>0.03133121293243998</v>
       </c>
       <c r="C38">
-        <v>-0.02406745203925086</v>
+        <v>-0.03038036945093582</v>
       </c>
       <c r="D38">
-        <v>0.04238692394619014</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.00736246081293286</v>
+      </c>
+      <c r="E38">
+        <v>0.007275292471640063</v>
+      </c>
+      <c r="F38">
+        <v>0.01825760953732015</v>
+      </c>
+      <c r="G38">
+        <v>0.08737052010637102</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.007205878842141814</v>
+        <v>0.03637981392516169</v>
       </c>
       <c r="C39">
-        <v>0.02644680079499745</v>
+        <v>-0.07996190189108111</v>
       </c>
       <c r="D39">
-        <v>0.09916974655378943</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.01182722074479899</v>
+      </c>
+      <c r="E39">
+        <v>0.02927957310072066</v>
+      </c>
+      <c r="F39">
+        <v>-0.02316021708492953</v>
+      </c>
+      <c r="G39">
+        <v>0.0905065026047915</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01591760619802499</v>
+        <v>0.01362076506820158</v>
       </c>
       <c r="C40">
-        <v>-0.004499486262924044</v>
+        <v>-0.04028672336047755</v>
       </c>
       <c r="D40">
-        <v>0.03524680173539715</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.01488806092251197</v>
+      </c>
+      <c r="E40">
+        <v>0.03159427992069205</v>
+      </c>
+      <c r="F40">
+        <v>0.005654689849607034</v>
+      </c>
+      <c r="G40">
+        <v>0.121854541922602</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.01365274162066236</v>
+        <v>0.02051138174972402</v>
       </c>
       <c r="C41">
-        <v>-0.01424859790328406</v>
+        <v>-0.002470489751549251</v>
       </c>
       <c r="D41">
-        <v>-0.008909429268712297</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.004478923881290693</v>
+      </c>
+      <c r="E41">
+        <v>0.007628940523017117</v>
+      </c>
+      <c r="F41">
+        <v>0.01542247241656552</v>
+      </c>
+      <c r="G41">
+        <v>0.08679980979403466</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>-0.06641753439658898</v>
+        <v>0.01003016944530026</v>
       </c>
       <c r="C42">
-        <v>0.06996495720578201</v>
+        <v>-0.03549169356710899</v>
       </c>
       <c r="D42">
-        <v>0.1608143033490664</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>-0.08959913380488793</v>
+      </c>
+      <c r="E42">
+        <v>0.020868004791007</v>
+      </c>
+      <c r="F42">
+        <v>0.04552607667637511</v>
+      </c>
+      <c r="G42">
+        <v>-0.02780456818570991</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.01449520854614169</v>
+        <v>0.03507624919557788</v>
       </c>
       <c r="C43">
-        <v>-0.01413451508156172</v>
+        <v>-0.01815152874925046</v>
       </c>
       <c r="D43">
-        <v>-0.009290929575888148</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.005912025448451196</v>
+      </c>
+      <c r="E43">
+        <v>0.02084459312358807</v>
+      </c>
+      <c r="F43">
+        <v>0.007266656410009537</v>
+      </c>
+      <c r="G43">
+        <v>0.1206272796707568</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.002036125815868761</v>
+        <v>0.01376247794474245</v>
       </c>
       <c r="C44">
-        <v>0.002338710108196986</v>
+        <v>-0.05921094945930335</v>
       </c>
       <c r="D44">
-        <v>0.05398377317532343</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.007036712489807347</v>
+      </c>
+      <c r="E44">
+        <v>0.02536931498409811</v>
+      </c>
+      <c r="F44">
+        <v>0.003121819191536858</v>
+      </c>
+      <c r="G44">
+        <v>0.1113339648561815</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.01040527432375257</v>
+        <v>0.008020696067467359</v>
       </c>
       <c r="C46">
-        <v>0.001867690124814447</v>
+        <v>-0.01428174646922437</v>
       </c>
       <c r="D46">
-        <v>-0.003275272544883689</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01273509154951544</v>
+      </c>
+      <c r="E46">
+        <v>0.001696542405122641</v>
+      </c>
+      <c r="F46">
+        <v>0.01566012774020262</v>
+      </c>
+      <c r="G46">
+        <v>0.1066638175179631</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.01469805393603431</v>
+        <v>0.0774058447454191</v>
       </c>
       <c r="C47">
-        <v>-0.02312797091941889</v>
+        <v>-0.06848799534138278</v>
       </c>
       <c r="D47">
-        <v>0.07328717177617991</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.004693410513442482</v>
+      </c>
+      <c r="E47">
+        <v>-0.005037822284007975</v>
+      </c>
+      <c r="F47">
+        <v>0.05331883370360977</v>
+      </c>
+      <c r="G47">
+        <v>0.08666883320162529</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.008628750620046791</v>
+        <v>0.01884366854727521</v>
       </c>
       <c r="C48">
-        <v>-0.01021448383899298</v>
+        <v>-0.01276848655475444</v>
       </c>
       <c r="D48">
-        <v>0.01743662349153121</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.002296208640435587</v>
+      </c>
+      <c r="E48">
+        <v>0.00515812040379109</v>
+      </c>
+      <c r="F48">
+        <v>0.01925166510240206</v>
+      </c>
+      <c r="G48">
+        <v>0.09785928232288359</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.0218906140366157</v>
+        <v>0.07557656398651588</v>
       </c>
       <c r="C50">
-        <v>-0.0306580447115156</v>
+        <v>-0.07188996443174291</v>
       </c>
       <c r="D50">
-        <v>0.07064221567019618</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.002129461759759345</v>
+      </c>
+      <c r="E50">
+        <v>-0.002562491783655398</v>
+      </c>
+      <c r="F50">
+        <v>0.05574388893386995</v>
+      </c>
+      <c r="G50">
+        <v>0.09445644265635987</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.007944607958003766</v>
+        <v>0.01443576915048779</v>
       </c>
       <c r="C51">
-        <v>-0.001133629074013037</v>
+        <v>-0.03641368231689321</v>
       </c>
       <c r="D51">
-        <v>0.0180208101364254</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.0107519481500479</v>
+      </c>
+      <c r="E51">
+        <v>0.0256174448794386</v>
+      </c>
+      <c r="F51">
+        <v>-0.02488349625549324</v>
+      </c>
+      <c r="G51">
+        <v>0.123059968163356</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1887,226 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.02362389805727336</v>
+        <v>0.08184592669359665</v>
       </c>
       <c r="C53">
-        <v>-0.03196131118091824</v>
+        <v>-0.08518484787749839</v>
       </c>
       <c r="D53">
-        <v>0.1277012234601927</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.003382664912697142</v>
+      </c>
+      <c r="E53">
+        <v>-0.0244454065365733</v>
+      </c>
+      <c r="F53">
+        <v>0.06465661922961823</v>
+      </c>
+      <c r="G53">
+        <v>0.09323302876572076</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.0116744822351075</v>
+        <v>0.03166074024296089</v>
       </c>
       <c r="C54">
-        <v>-0.0218805957483342</v>
+        <v>-0.01881999040826333</v>
       </c>
       <c r="D54">
-        <v>0.0002453816494491775</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.001230940178858827</v>
+      </c>
+      <c r="E54">
+        <v>0.01836200778723223</v>
+      </c>
+      <c r="F54">
+        <v>0.005131598295733444</v>
+      </c>
+      <c r="G54">
+        <v>0.1071910297645436</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.0127369368623079</v>
+        <v>0.07193673027579323</v>
       </c>
       <c r="C55">
-        <v>-0.01824136486393556</v>
+        <v>-0.0684493614430579</v>
       </c>
       <c r="D55">
-        <v>0.1013717009187137</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.004921171373792895</v>
+      </c>
+      <c r="E55">
+        <v>-0.02227689614532667</v>
+      </c>
+      <c r="F55">
+        <v>0.06385566260092218</v>
+      </c>
+      <c r="G55">
+        <v>0.06968051043786308</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.02495324586790527</v>
+        <v>0.1362103233374722</v>
       </c>
       <c r="C56">
-        <v>-0.03998261636621714</v>
+        <v>-0.1077602491471135</v>
       </c>
       <c r="D56">
-        <v>0.1577939688233353</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.01233447949102451</v>
+      </c>
+      <c r="E56">
+        <v>-0.031998121559057</v>
+      </c>
+      <c r="F56">
+        <v>0.08150275986239386</v>
+      </c>
+      <c r="G56">
+        <v>0.04325523983746685</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>-0.02285601610107248</v>
+        <v>0.005822813654754291</v>
       </c>
       <c r="C57">
-        <v>0.006721782282393512</v>
+        <v>-0.00672353360030084</v>
       </c>
       <c r="D57">
-        <v>0.03388177258714704</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>-0.02283901529662807</v>
+      </c>
+      <c r="E57">
+        <v>0.02495581756209858</v>
+      </c>
+      <c r="F57">
+        <v>-0.009324434264057912</v>
+      </c>
+      <c r="G57">
+        <v>0.02350254247072967</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.01619468691635775</v>
+        <v>0.0536431888349767</v>
       </c>
       <c r="C58">
-        <v>-0.01901533189987941</v>
+        <v>-0.04652511341524434</v>
       </c>
       <c r="D58">
-        <v>0.1343072201137993</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.01992753115487577</v>
+      </c>
+      <c r="E58">
+        <v>0.9167430896838511</v>
+      </c>
+      <c r="F58">
+        <v>0.2580870336308033</v>
+      </c>
+      <c r="G58">
+        <v>-0.2262535804289462</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.157229013469512</v>
+        <v>0.160396108699126</v>
       </c>
       <c r="C59">
-        <v>-0.2207886421363474</v>
+        <v>0.2054163036056834</v>
       </c>
       <c r="D59">
-        <v>-0.1000337338870944</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.01183344231332451</v>
+      </c>
+      <c r="E59">
+        <v>0.01839563751907328</v>
+      </c>
+      <c r="F59">
+        <v>0.002618263044642448</v>
+      </c>
+      <c r="G59">
+        <v>0.04133270870873071</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.1285593712215504</v>
+        <v>0.288435240960376</v>
       </c>
       <c r="C60">
-        <v>-0.1468857471823544</v>
+        <v>-0.1081307453754255</v>
       </c>
       <c r="D60">
-        <v>0.1488234062223433</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.01134821949180167</v>
+      </c>
+      <c r="E60">
+        <v>-0.005292414072243603</v>
+      </c>
+      <c r="F60">
+        <v>-0.3367787059015123</v>
+      </c>
+      <c r="G60">
+        <v>-0.1632617433274401</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.001513769515455475</v>
+        <v>0.03908837802704126</v>
       </c>
       <c r="C61">
-        <v>0.004064670748989122</v>
+        <v>-0.065996606799821</v>
       </c>
       <c r="D61">
-        <v>0.07576967255523535</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.005543158732589062</v>
+      </c>
+      <c r="E61">
+        <v>0.02343467920787155</v>
+      </c>
+      <c r="F61">
+        <v>-0.01431563045185475</v>
+      </c>
+      <c r="G61">
+        <v>0.09606159427869596</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.006196871377078813</v>
+        <v>0.01556958310891216</v>
       </c>
       <c r="C63">
-        <v>0.004648247163968239</v>
+        <v>-0.03011125455326376</v>
       </c>
       <c r="D63">
-        <v>0.02226589007666049</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.00859259312112946</v>
+      </c>
+      <c r="E63">
+        <v>0.003575114646681869</v>
+      </c>
+      <c r="F63">
+        <v>0.01896624234155213</v>
+      </c>
+      <c r="G63">
+        <v>0.09369308783515705</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.02089463856598178</v>
+        <v>0.04891450177298517</v>
       </c>
       <c r="C64">
-        <v>-0.01955013887481186</v>
+        <v>-0.04655596472056119</v>
       </c>
       <c r="D64">
-        <v>0.06341631786275183</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.006628451100967868</v>
+      </c>
+      <c r="E64">
+        <v>0.009090807250963236</v>
+      </c>
+      <c r="F64">
+        <v>-0.009435583377497433</v>
+      </c>
+      <c r="G64">
+        <v>0.1034212193928054</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.02264409273892685</v>
+        <v>0.07526086722619081</v>
       </c>
       <c r="C65">
-        <v>-0.001078866564157557</v>
+        <v>-0.05814812402270828</v>
       </c>
       <c r="D65">
-        <v>0.1122475711681425</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.01659430951439429</v>
+      </c>
+      <c r="E65">
+        <v>0.0383975963689415</v>
+      </c>
+      <c r="F65">
+        <v>-0.02931336724108571</v>
+      </c>
+      <c r="G65">
+        <v>0.04166924544039859</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.006448662364733274</v>
+        <v>0.05106844792088595</v>
       </c>
       <c r="C66">
-        <v>0.02504496656297274</v>
+        <v>-0.1070568820025033</v>
       </c>
       <c r="D66">
-        <v>0.1339762481123127</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.01169476180633076</v>
+      </c>
+      <c r="E66">
+        <v>0.03999680243167701</v>
+      </c>
+      <c r="F66">
+        <v>-0.03481552673249171</v>
+      </c>
+      <c r="G66">
+        <v>0.1041832708934082</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.02222710973626496</v>
+        <v>0.05401790483180878</v>
       </c>
       <c r="C67">
-        <v>-0.03773833782701295</v>
+        <v>-0.03352283585230356</v>
       </c>
       <c r="D67">
-        <v>0.06126566703431752</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.005847844840372351</v>
+      </c>
+      <c r="E67">
+        <v>-0.00151706271858003</v>
+      </c>
+      <c r="F67">
+        <v>0.01769307818128311</v>
+      </c>
+      <c r="G67">
+        <v>0.075842555524438</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.171518969699065</v>
+        <v>0.1556810557493244</v>
       </c>
       <c r="C68">
-        <v>-0.2087809828994212</v>
+        <v>0.2687784411470929</v>
       </c>
       <c r="D68">
-        <v>-0.1472179341293824</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.005357844319129355</v>
+      </c>
+      <c r="E68">
+        <v>0.01260971421626123</v>
+      </c>
+      <c r="F68">
+        <v>0.0376402881212601</v>
+      </c>
+      <c r="G68">
+        <v>0.02996146791744552</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.01830378991571815</v>
+        <v>0.08273700566405547</v>
       </c>
       <c r="C69">
-        <v>-0.03466810520642355</v>
+        <v>-0.07021220557726267</v>
       </c>
       <c r="D69">
-        <v>0.07942376663116781</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.008781532455068686</v>
+      </c>
+      <c r="E69">
+        <v>-0.02044225035450997</v>
+      </c>
+      <c r="F69">
+        <v>0.03736020247089564</v>
+      </c>
+      <c r="G69">
+        <v>0.1017339509183633</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,192 +2301,318 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.1376845768239159</v>
+        <v>0.1410406097878326</v>
       </c>
       <c r="C71">
-        <v>-0.1781480523385609</v>
+        <v>0.2302605385955911</v>
       </c>
       <c r="D71">
-        <v>-0.1021168535655558</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.003127627722073375</v>
+      </c>
+      <c r="E71">
+        <v>0.0330904573973024</v>
+      </c>
+      <c r="F71">
+        <v>0.02468969821335606</v>
+      </c>
+      <c r="G71">
+        <v>0.07113612075685195</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.005427078122849677</v>
+        <v>0.08557887849997591</v>
       </c>
       <c r="C72">
-        <v>-0.01634736172499112</v>
+        <v>-0.06800604009950478</v>
       </c>
       <c r="D72">
-        <v>0.108007335037043</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.00835029637909606</v>
+      </c>
+      <c r="E72">
+        <v>-0.007665973993256136</v>
+      </c>
+      <c r="F72">
+        <v>-0.03806588680385637</v>
+      </c>
+      <c r="G72">
+        <v>0.08707427867173081</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.1558196686084587</v>
+        <v>0.3769820935917396</v>
       </c>
       <c r="C73">
-        <v>-0.1671794277407256</v>
+        <v>-0.115645934616934</v>
       </c>
       <c r="D73">
-        <v>0.2722459088104627</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.02020384737405988</v>
+      </c>
+      <c r="E73">
+        <v>0.06930312590928343</v>
+      </c>
+      <c r="F73">
+        <v>-0.5802929138856473</v>
+      </c>
+      <c r="G73">
+        <v>-0.2913044236476335</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.023347206139011</v>
+        <v>0.104834521703851</v>
       </c>
       <c r="C74">
-        <v>-0.0402447326777015</v>
+        <v>-0.1094470725499196</v>
       </c>
       <c r="D74">
-        <v>0.173542873939625</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.009376919143273205</v>
+      </c>
+      <c r="E74">
+        <v>-0.007655031241215463</v>
+      </c>
+      <c r="F74">
+        <v>0.0692150303165025</v>
+      </c>
+      <c r="G74">
+        <v>0.08318345321713755</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.06415709461188068</v>
+        <v>0.2469851373044274</v>
       </c>
       <c r="C75">
-        <v>-0.1032757520127946</v>
+        <v>-0.1533832563514858</v>
       </c>
       <c r="D75">
-        <v>0.30344381407376</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.030545425575712</v>
+      </c>
+      <c r="E75">
+        <v>-0.06644646578822835</v>
+      </c>
+      <c r="F75">
+        <v>0.1665675624467406</v>
+      </c>
+      <c r="G75">
+        <v>-0.02019659367146614</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.02789017725020975</v>
+        <v>0.1184041241975877</v>
       </c>
       <c r="C76">
-        <v>-0.05560836628608274</v>
+        <v>-0.110062474691941</v>
       </c>
       <c r="D76">
-        <v>0.2106930641419089</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.01777320953112571</v>
+      </c>
+      <c r="E76">
+        <v>-0.02502278402419924</v>
+      </c>
+      <c r="F76">
+        <v>0.1045344562432945</v>
+      </c>
+      <c r="G76">
+        <v>0.06019223976208472</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.01736818870478751</v>
+        <v>0.06923592425886066</v>
       </c>
       <c r="C77">
-        <v>-0.005346942238846558</v>
+        <v>-0.0581780797329022</v>
       </c>
       <c r="D77">
-        <v>0.07440013817745035</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.01063486563672173</v>
+      </c>
+      <c r="E77">
+        <v>0.04830301053129075</v>
+      </c>
+      <c r="F77">
+        <v>-0.009320169982966342</v>
+      </c>
+      <c r="G77">
+        <v>0.06778145130445579</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.008384880724964279</v>
+        <v>0.04325597655626571</v>
       </c>
       <c r="C78">
-        <v>-0.004948618552788341</v>
+        <v>-0.04952602478165564</v>
       </c>
       <c r="D78">
-        <v>0.06632082583514502</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.005822209969665976</v>
+      </c>
+      <c r="E78">
+        <v>0.02822555774650753</v>
+      </c>
+      <c r="F78">
+        <v>-0.03708030852446949</v>
+      </c>
+      <c r="G78">
+        <v>0.1023508010892391</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>8.209029393238465e-05</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>-0.0004470383097576637</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>5.887832644464287e-06</v>
+      </c>
+      <c r="E79">
+        <v>0.0007772293585806118</v>
+      </c>
+      <c r="F79">
+        <v>-0.0005053396675019058</v>
+      </c>
+      <c r="G79">
+        <v>-0.0008894162788891865</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.02709901564984219</v>
+        <v>0.04318634124471321</v>
       </c>
       <c r="C80">
-        <v>-0.01654809130589342</v>
+        <v>-0.05149349508253526</v>
       </c>
       <c r="D80">
-        <v>0.08360037593449687</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.01333251941899702</v>
+      </c>
+      <c r="E80">
+        <v>0.02583291359094367</v>
+      </c>
+      <c r="F80">
+        <v>-0.01163483689301339</v>
+      </c>
+      <c r="G80">
+        <v>0.05349323125073119</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.03860731082313334</v>
+        <v>0.1368431268707067</v>
       </c>
       <c r="C81">
-        <v>-0.06001377684666635</v>
+        <v>-0.0958590373039624</v>
       </c>
       <c r="D81">
-        <v>0.168213672667706</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.01460448907671799</v>
+      </c>
+      <c r="E81">
+        <v>-0.03195758203911223</v>
+      </c>
+      <c r="F81">
+        <v>0.1259803414786505</v>
+      </c>
+      <c r="G81">
+        <v>0.02349479652264991</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>0.1331236444623335</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>-0.08050388841004708</v>
       </c>
       <c r="D82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.009379248439827405</v>
+      </c>
+      <c r="E82">
+        <v>-0.09948236007774594</v>
+      </c>
+      <c r="F82">
+        <v>0.05260841637088933</v>
+      </c>
+      <c r="G82">
+        <v>0.06494927754540443</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.01408080798212696</v>
+        <v>0.03639732246004482</v>
       </c>
       <c r="C83">
-        <v>-0.01257797345644655</v>
+        <v>-0.02819143066123086</v>
       </c>
       <c r="D83">
-        <v>0.02895332763913128</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.005948059358365409</v>
+      </c>
+      <c r="E83">
+        <v>0.03002278702412944</v>
+      </c>
+      <c r="F83">
+        <v>-0.03035722148599124</v>
+      </c>
+      <c r="G83">
+        <v>0.06341579693216651</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2623,272 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.06133186820810712</v>
+        <v>0.2120988244954146</v>
       </c>
       <c r="C85">
-        <v>-0.07848021912163528</v>
+        <v>-0.1481010305873806</v>
       </c>
       <c r="D85">
-        <v>0.2821710229560125</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.01682237621739101</v>
+      </c>
+      <c r="E85">
+        <v>-0.1009772583449498</v>
+      </c>
+      <c r="F85">
+        <v>0.1212972055203162</v>
+      </c>
+      <c r="G85">
+        <v>-0.06109919904346568</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.01536478775225639</v>
+        <v>0.01468185552776807</v>
       </c>
       <c r="C86">
-        <v>-0.01204184738070599</v>
+        <v>-0.02565834467496811</v>
       </c>
       <c r="D86">
-        <v>0.04591961280229524</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.01160255548607812</v>
+      </c>
+      <c r="E86">
+        <v>0.05146385554582697</v>
+      </c>
+      <c r="F86">
+        <v>-0.02080825989670798</v>
+      </c>
+      <c r="G86">
+        <v>0.1900002071434737</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.004035218444455911</v>
+        <v>0.02156181319075483</v>
       </c>
       <c r="C87">
-        <v>0.009024158260743785</v>
+        <v>-0.02208354560116077</v>
       </c>
       <c r="D87">
-        <v>0.04086524438214278</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.01187293986510524</v>
+      </c>
+      <c r="E87">
+        <v>0.09345502077723272</v>
+      </c>
+      <c r="F87">
+        <v>-0.01062686710153841</v>
+      </c>
+      <c r="G87">
+        <v>0.121531850269046</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.04007285688935136</v>
+        <v>0.09436252580831364</v>
       </c>
       <c r="C88">
-        <v>-0.01523621866305803</v>
+        <v>-0.06849420273956811</v>
       </c>
       <c r="D88">
-        <v>0.05119104775115235</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.02231180371653613</v>
+      </c>
+      <c r="E88">
+        <v>-0.003210356734014609</v>
+      </c>
+      <c r="F88">
+        <v>0.02060940237004509</v>
+      </c>
+      <c r="G88">
+        <v>0.103100650895359</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.249665568718767</v>
+        <v>0.2326765567374798</v>
       </c>
       <c r="C89">
-        <v>-0.3178708857010524</v>
+        <v>0.3686266186879683</v>
       </c>
       <c r="D89">
-        <v>-0.1810268530170738</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.0005840263188565135</v>
+      </c>
+      <c r="E89">
+        <v>-0.01848637819065145</v>
+      </c>
+      <c r="F89">
+        <v>0.02704843870448692</v>
+      </c>
+      <c r="G89">
+        <v>0.07087382036721382</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.2040857132971241</v>
+        <v>0.2080473287613136</v>
       </c>
       <c r="C90">
-        <v>-0.2652896064556786</v>
+        <v>0.3172983724976661</v>
       </c>
       <c r="D90">
-        <v>-0.1663348120076754</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.004895751840462802</v>
+      </c>
+      <c r="E90">
+        <v>0.002195148353680411</v>
+      </c>
+      <c r="F90">
+        <v>0.0487878322224164</v>
+      </c>
+      <c r="G90">
+        <v>0.04465737844662632</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.05339813601964347</v>
+        <v>0.1850478966417772</v>
       </c>
       <c r="C91">
-        <v>-0.08941695299309697</v>
+        <v>-0.1426671725025193</v>
       </c>
       <c r="D91">
-        <v>0.2287079615671048</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.02152815635758387</v>
+      </c>
+      <c r="E91">
+        <v>-0.06181497119080306</v>
+      </c>
+      <c r="F91">
+        <v>0.141837131365477</v>
+      </c>
+      <c r="G91">
+        <v>0.03482975857299791</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.1634313023459118</v>
+        <v>0.1996006064789647</v>
       </c>
       <c r="C92">
-        <v>-0.2617096874986117</v>
+        <v>0.2565193037520322</v>
       </c>
       <c r="D92">
-        <v>-0.06367786946140704</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.03816112991609611</v>
+      </c>
+      <c r="E92">
+        <v>0.04470888981181222</v>
+      </c>
+      <c r="F92">
+        <v>0.0580154539469243</v>
+      </c>
+      <c r="G92">
+        <v>0.1126194730260538</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.2129963471637434</v>
+        <v>0.2312348746949474</v>
       </c>
       <c r="C93">
-        <v>-0.2852626657718453</v>
+        <v>0.3132401263256795</v>
       </c>
       <c r="D93">
-        <v>-0.1312724737153835</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.01143361245929869</v>
+      </c>
+      <c r="E93">
+        <v>0.005817045032608889</v>
+      </c>
+      <c r="F93">
+        <v>0.04313803730238257</v>
+      </c>
+      <c r="G93">
+        <v>0.05974195270788023</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.1007453133301337</v>
+        <v>0.3189536256847771</v>
       </c>
       <c r="C94">
-        <v>-0.1190476241239409</v>
+        <v>-0.1802181041862618</v>
       </c>
       <c r="D94">
-        <v>0.3200722991205204</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.01817011635392598</v>
+      </c>
+      <c r="E94">
+        <v>-0.2082723261759325</v>
+      </c>
+      <c r="F94">
+        <v>0.482799923916506</v>
+      </c>
+      <c r="G94">
+        <v>-0.4138404268946644</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.003899073487964754</v>
+        <v>0.1012772082809662</v>
       </c>
       <c r="C95">
-        <v>-0.006531266498591466</v>
+        <v>-0.08957757853494974</v>
       </c>
       <c r="D95">
-        <v>0.1219505824933</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.00998018362530915</v>
+      </c>
+      <c r="E95">
+        <v>0.08253276949222799</v>
+      </c>
+      <c r="F95">
+        <v>-0.1964519465295053</v>
+      </c>
+      <c r="G95">
+        <v>-0.002337158333639571</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.08615653248239621</v>
+        <v>0.1951698519991079</v>
       </c>
       <c r="C98">
-        <v>-0.136054770851132</v>
+        <v>-0.04479459040782643</v>
       </c>
       <c r="D98">
-        <v>0.1368832356981624</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.01383208643009855</v>
+      </c>
+      <c r="E98">
+        <v>0.0664970369293125</v>
+      </c>
+      <c r="F98">
+        <v>-0.2393473526675039</v>
+      </c>
+      <c r="G98">
+        <v>-0.02828174071968008</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.01046977438183342</v>
+        <v>0.008815749996588714</v>
       </c>
       <c r="C101">
-        <v>-0.003679478288287641</v>
+        <v>-0.02313110957415981</v>
       </c>
       <c r="D101">
-        <v>0.01935730346128842</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.009144732396550836</v>
+      </c>
+      <c r="E101">
+        <v>0.004249045043166281</v>
+      </c>
+      <c r="F101">
+        <v>0.01533007071746164</v>
+      </c>
+      <c r="G101">
+        <v>0.09596447578067699</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.03907122945812904</v>
+        <v>0.1156379973657493</v>
       </c>
       <c r="C102">
-        <v>-0.03891700308892775</v>
+        <v>-0.08425230931061818</v>
       </c>
       <c r="D102">
-        <v>0.1355035944632496</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.001019372352066099</v>
+      </c>
+      <c r="E102">
+        <v>-0.03481186345168908</v>
+      </c>
+      <c r="F102">
+        <v>0.04158341708542711</v>
+      </c>
+      <c r="G102">
+        <v>0.01067293618990242</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,19 +3060,37 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>-0.7918698648037343</v>
+        <v>0.02131278412460782</v>
       </c>
       <c r="C104">
-        <v>0.5952846767654538</v>
+        <v>0.03088425093094096</v>
       </c>
       <c r="D104">
-        <v>-0.03629099372306841</v>
+        <v>-0.9878968299719613</v>
+      </c>
+      <c r="E104">
+        <v>-0.04757957878599186</v>
+      </c>
+      <c r="F104">
+        <v>0.03432409926848461</v>
+      </c>
+      <c r="G104">
+        <v>-0.03965607422410915</v>
       </c>
     </row>
   </sheetData>
